--- a/Results/IBA Mock/Mock 4.xlsx
+++ b/Results/IBA Mock/Mock 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\results giver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\IBA Mock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084745DA-7D9E-4961-9161-C2B55A531269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A58EAB-1A9D-43BC-B0C2-E15E8BBFFEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I19" si="2">G2*1 + H2*($Z$6)</f>
+        <f t="shared" ref="I2:I25" si="2">G2*1 + H2*($Z$6)</f>
         <v>8.75</v>
       </c>
       <c r="J2">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R10" s="11">
         <v>17.5</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I31" si="13">G20*1 + H20*(T24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M31" si="14">K20*1 + L20*(-0.25)</f>
+        <f t="shared" ref="M20:M31" si="13">K20*1 + L20*(-0.25)</f>
         <v>0</v>
       </c>
       <c r="N20">
@@ -2491,12 +2491,12 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.25</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2505,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="N21">
@@ -2514,11 +2514,11 @@
       </c>
       <c r="O21">
         <f t="shared" si="6"/>
-        <v>14.5</v>
+        <v>13.75</v>
       </c>
       <c r="P21">
         <f t="shared" si="7"/>
-        <v>20.714285714285715</v>
+        <v>19.642857142857142</v>
       </c>
       <c r="Q21">
         <f t="shared" si="8"/>
@@ -2532,7 +2532,7 @@
       <c r="U21" s="11"/>
       <c r="V21">
         <f t="shared" si="11"/>
-        <v>37.5</v>
+        <v>36.75</v>
       </c>
       <c r="W21">
         <f t="shared" si="10"/>
@@ -2567,12 +2567,12 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>5.75</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>8.75</v>
       </c>
       <c r="N22">
@@ -2590,11 +2590,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
-        <v>16.5</v>
+        <v>16.25</v>
       </c>
       <c r="P22">
         <f t="shared" si="7"/>
-        <v>23.571428571428569</v>
+        <v>23.214285714285715</v>
       </c>
       <c r="Q22">
         <f t="shared" si="8"/>
@@ -2608,7 +2608,7 @@
       <c r="U22" s="11"/>
       <c r="V22">
         <f t="shared" si="11"/>
-        <v>30.5</v>
+        <v>30.25</v>
       </c>
       <c r="W22">
         <f t="shared" si="10"/>
@@ -2643,12 +2643,12 @@
         <v>6</v>
       </c>
       <c r="I23">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.75</v>
       </c>
       <c r="N23">
@@ -2666,15 +2666,15 @@
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>22.857142857142858</v>
+        <v>20.714285714285715</v>
       </c>
       <c r="Q23">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R23" s="11">
         <v>16</v>
@@ -2684,11 +2684,11 @@
       <c r="U23" s="11"/>
       <c r="V23">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="W23">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="29.4" customHeight="1" thickBot="1">
@@ -2719,12 +2719,12 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11.75</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>12</v>
@@ -2733,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="M24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>11.5</v>
       </c>
       <c r="N24">
@@ -2742,11 +2742,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="6"/>
-        <v>36.75</v>
+        <v>36.5</v>
       </c>
       <c r="P24">
         <f t="shared" si="7"/>
-        <v>52.5</v>
+        <v>52.142857142857146</v>
       </c>
       <c r="Q24">
         <f t="shared" si="8"/>
@@ -2760,7 +2760,7 @@
       <c r="U24" s="11"/>
       <c r="V24">
         <f t="shared" si="11"/>
-        <v>56.75</v>
+        <v>56.5</v>
       </c>
       <c r="W24">
         <f t="shared" si="10"/>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J25">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="N25">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I20:I31" si="14">G26*1 + H26*(T30)</f>
         <v>0</v>
       </c>
       <c r="J26">
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N26">
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J27">
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N27">
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N28">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J29">
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29">
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J30">
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N30">
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J31">
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N31">
